--- a/Prices.xlsx
+++ b/Prices.xlsx
@@ -14,6 +14,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sistem PC Gaming Maxi457, Inte" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Espressor manual Breville VCF1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aparat de ras Gillette Labs He" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masina de tocat carne Bosch MF" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Robot de aspirare Roborock Cle" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Telefon mobil Apple iPhone 12 " sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pistol Airsoft CO2 Walther P99" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aparat hibrid de barbierit, tu" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casti audio Xiaomi Mi True Wir" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,6 +437,298 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/telefon-mobil-apple-iphone-12-pro-128gb-5g-graphite-mgmk3rm-a/pd/DDTJ27MBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6.309,00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.309,00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/pistol-airsoft-co2-walther-p99-dao-upgraded-4j-umarex-cadou-umwp99dd/pd/DKHDJ7MBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>930,00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>550,00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/aparat-hibrid-de-barbierit-tuns-barba-si-parul-corporal-philips-oneblade-4-piepteni-2-lame-negru-verde-qp2630-30/pd/DQ3JNLBBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>329,99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199,99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/casti-audio-xiaomi-mi-true-wireless-earbuds-basic-6934177709968/pd/DC51J5BBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>305,00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105,01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -867,4 +1165,150 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/masina-de-tocat-carne-bosch-2000-w-3-5-kg-min-negru-argintiu-mfw67440/pd/DGDRJBBBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>769,99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>550,99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/robot-de-aspirare-roborock-cleaner-s5-max-wifi-aspirator-si-mop-smart-top-up-navigare-lidar-setare-bariere-virtuale-zone-no-mop-alb-s5e02-00-white/pd/D888WWBBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.989,99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.989,99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Prices.xlsx
+++ b/Prices.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pistol Airsoft CO2 Walther P99" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aparat hibrid de barbierit, tu" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casti audio Xiaomi Mi True Wir" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayStation 5 - PS5 Consola - " sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,12 +506,339 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/telefon-mobil-apple-iphone-12-pro-128gb-5g-graphite-mgmk3rm-a/pd/DDTJ27MBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6.399,00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.399,00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/pistol-airsoft-co2-walther-p99-dao-upgraded-4j-umarex-cadou-umwp99dd/pd/DKHDJ7MBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>930,00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>550,00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/pistol-airsoft-co2-walther-p99-dao-upgraded-4j-umarex-cadou-umwp99dd/pd/DKHDJ7MBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>930,00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>550,00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/aparat-hibrid-de-barbierit-tuns-barba-si-parul-corporal-philips-oneblade-4-piepteni-2-lame-negru-verde-qp2630-30/pd/DQ3JNLBBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>329,99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199,99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/aparat-hibrid-de-barbierit-tuns-barba-si-parul-corporal-philips-oneblade-4-piepteni-2-lame-negru-verde-qp2630-30/pd/DQ3JNLBBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>329,99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>199,99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>BasePrice</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ReducedPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email_recip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>February 13, 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/casti-audio-xiaomi-mi-true-wireless-earbuds-basic-6934177709968/pd/DC51J5BBM/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>305,00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105,01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/casti-audio-xiaomi-mi-true-wireless-earbuds-basic-6934177709968/pd/DC51J5BBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>89,00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89,00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -554,168 +882,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>February 13, 2021</t>
+          <t>February 14, 2021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.emag.ro/pistol-airsoft-co2-walther-p99-dao-upgraded-4j-umarex-cadou-umwp99dd/pd/DKHDJ7MBM/</t>
+          <t>https://www.emag.ro/consola-playstation-5-so-9396406/pd/DNKW72MBM/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>930,00</t>
+          <t>2.499,98</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>550,00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>florin.firanescu@gmail.com</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BasePrice</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ReducedPrice</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Email_recip</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>February 13, 2021</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.emag.ro/aparat-hibrid-de-barbierit-tuns-barba-si-parul-corporal-philips-oneblade-4-piepteni-2-lame-negru-verde-qp2630-30/pd/DQ3JNLBBM/</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>329,99</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>199,99</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>florin.firanescu@gmail.com</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BasePrice</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ReducedPrice</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Email_recip</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>February 13, 2021</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.emag.ro/casti-audio-xiaomi-mi-true-wireless-earbuds-basic-6934177709968/pd/DC51J5BBM/</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>305,00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>105,01</t>
+          <t>2.499,98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -735,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,6 +974,33 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/televizor-philips-108-cm-smart-android-4k-ultra-hd-led-clasa-b-43pus8545-12/pd/DB05HYMBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.999,99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.249,99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>florin.firanescu@gmail.com</t>
         </is>
@@ -808,7 +1017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,6 +1074,33 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/televizor-led-smart-samsung-108-cm-43ru7102-4k-ultra-hd-clasa-a-ue43ru7102kxxh/pd/D8K2XZBBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.299,00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.299,00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>florin.firanescu@gmail.com</t>
         </is>
@@ -881,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +1174,33 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/televizor-panasonic-108-cm-smart-android-4k-ultra-hd-led-clasa-a-tx-43hx710e/pd/DGPZR7MBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.849,99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.299,99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>florin.firanescu@gmail.com</t>
         </is>
@@ -954,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,6 +1274,33 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/sistem-pc-gaming-maxi457-intelr-coretm-i5-4570-memorie-ram-8gb-stocare-240ssd-placa-video-geforce-gt710-supernova-red-100011226/pd/DP2TG6BBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.267,87</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.667,55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>florin.firanescu@gmail.com</t>
         </is>
@@ -1027,7 +1317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,6 +1374,33 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/espressor-manual-breville-prima-latte-ii-19-bar-1-5-l-recipient-lapte-0-6-l-rosu-vcf109x/pd/DCHCB4BBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.299,99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>799,99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>florin.firanescu@gmail.com</t>
         </is>
@@ -1100,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,6 +1474,33 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/aparat-de-ras-gillette-labs-heated-starter-kit-1-rezerva-statie-de-incarcare-7702018586806/pd/DSPJM2MBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>849,99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>464,99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>florin.firanescu@gmail.com</t>
         </is>
@@ -1173,7 +1517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,6 +1574,33 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/masina-de-tocat-carne-bosch-2000-w-3-5-kg-min-negru-argintiu-mfw67440/pd/DGDRJBBBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>769,99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>550,99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>florin.firanescu@gmail.com</t>
         </is>
@@ -1246,7 +1617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,6 +1679,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 14, 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.emag.ro/robot-de-aspirare-roborock-cleaner-s5-max-wifi-aspirator-si-mop-smart-top-up-navigare-lidar-setare-bariere-virtuale-zone-no-mop-alb-s5e02-00-white/pd/D888WWBBM/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.989,99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.989,99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>florin.firanescu@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Prices.xlsx
+++ b/Prices.xlsx
@@ -863,7 +863,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>florin.firanescu@gmail.com, denisflorin736@gmail.com</t>
+          <t>florin.firanescu@gmail.com, smcmanagementulcalitatii@gmail.com, denisflorin736@gmail.com</t>
         </is>
       </c>
       <c r="F5" t="n">
